--- a/listas/Category-2024-02-24.xlsx
+++ b/listas/Category-2024-02-24.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\henry\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\henry\Desktop\RUVLO 2.0\listas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09C1A851-89EE-4252-8340-9F35019DEA9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12C8D40D-9B7B-43E5-ACCB-40576397C3B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="73">
   <si>
     <t>id</t>
   </si>
@@ -29,9 +29,6 @@
   </si>
   <si>
     <t>slug</t>
-  </si>
-  <si>
-    <t>views</t>
   </si>
   <si>
     <t>Ropa</t>
@@ -594,16 +591,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D36"/>
+  <dimension ref="A1:C36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomLeft" activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -613,498 +610,390 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C19" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C20" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C21" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C21" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C22" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C23" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C23" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C24" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C24" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C25" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C26" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C26" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C27" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C27" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C28" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C28" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="D28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C29" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C29" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C30" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C30" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C31" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C31" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C32" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C32" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C33" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C34" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C34" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C35" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C35" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C36" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D36">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
